--- a/data/trans_camb/P16A06-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A06-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A06-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A06-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,12</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,08</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,61</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,51</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,81</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,51; 0,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,11; 4,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,64; 10,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,96; 5,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,1; 10,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,96; 18,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,03; 2,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,59; 7,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,82; 15,0</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,51%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,51%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>215,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,64%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>114,52%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>221,3%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,47%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>98,18%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>228,4%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,42; 19,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,35; 138,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>124,78; 369,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,51; 82,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,87; 170,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>155,15; 302,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,55; 53,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>56,14; 144,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>169,33; 298,93</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,92</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,39; 1,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 1,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,7; 3,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,39; 3,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,1; 3,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,43; 6,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,37; 1,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,65; 2,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,05; 4,81</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,76%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,76%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>230,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,22%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>200,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,11%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>215,79%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,39; 161,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,37; 138,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>93,31; 449,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,7; 156,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,67; 186,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>109,57; 348,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,51; 126,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,91; 145,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>132,9; 326,05</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,49</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 3,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 2,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,34; 4,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 3,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 3,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,88; 5,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,35; 2,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,04; 2,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,26; 4,84</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,71%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>84,2%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>289,83%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,85%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,23%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>214,73%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,91%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>90,8%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>250,72%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,76; 519,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,05; 465,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>64,09; 886,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,04; 356,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,43; 334,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>48,32; 598,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,66; 244,99</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,53; 288,3</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>104,39; 556,19</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,29</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,91</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 0,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,11; 1,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,35; 4,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,0; 3,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,23; 4,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,91; 7,55</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,4; 1,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,37; 2,73</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,12; 5,66</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,9%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>164,75%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,5%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,57%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>151,1%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,41%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,05%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>159,02%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,0; 46,52</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,41; 82,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>98,88; 251,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,38; 86,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>46,83; 122,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>106,82; 208,2</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,01; 62,96</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,73; 97,41</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>119,44; 206,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A06-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A06-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,12</t>
+          <t>7,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,61</t>
+          <t>15,36</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,81</t>
+          <t>12,46</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,64; 10,99</t>
+          <t>5,51; 10,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,96; 18,67</t>
+          <t>12,73; 18,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,82; 15,0</t>
+          <t>10,56; 14,49</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>215,5%</t>
+          <t>210,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>221,3%</t>
+          <t>217,79%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>228,4%</t>
+          <t>222,2%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>124,78; 369,98</t>
+          <t>120,26; 362,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>155,15; 302,27</t>
+          <t>153,31; 299,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>169,33; 298,93</t>
+          <t>165,56; 291,33</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>3,38</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,7; 3,8</t>
+          <t>1,01; 3,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,43; 6,42</t>
+          <t>2,27; 5,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,05; 4,81</t>
+          <t>2,15; 4,31</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>230,02%</t>
+          <t>195,4%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>200,93%</t>
+          <t>177,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>215,79%</t>
+          <t>185,65%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>93,31; 449,37</t>
+          <t>58,25; 403,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>109,57; 348,97</t>
+          <t>82,27; 316,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>132,9; 326,05</t>
+          <t>101,78; 284,94</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,91</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>3,45</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,34; 4,66</t>
+          <t>1,34; 4,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,88; 5,89</t>
+          <t>1,81; 5,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,26; 4,84</t>
+          <t>2,27; 4,76</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>289,83%</t>
+          <t>293,3%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>214,73%</t>
+          <t>209,88%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>250,72%</t>
+          <t>247,6%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>64,09; 886,63</t>
+          <t>61,45; 901,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>48,32; 598,14</t>
+          <t>46,28; 588,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>104,39; 556,19</t>
+          <t>98,39; 548,08</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,29</t>
+          <t>5,68</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>4,34</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,22</t>
+          <t>1,71; 3,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,91; 7,55</t>
+          <t>3,75; 6,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,12; 5,66</t>
+          <t>3,18; 5,2</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>164,75%</t>
+          <t>145,33%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>151,1%</t>
+          <t>136,55%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>159,02%</t>
+          <t>140,32%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>98,88; 251,51</t>
+          <t>74,25; 234,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>106,82; 208,2</t>
+          <t>84,71; 190,25</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>119,44; 206,1</t>
+          <t>97,44; 185,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A06-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A06-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 0,56</t>
+          <t>-2,58; 0,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,11; 4,25</t>
+          <t>0,01; 4,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,51; 10,82</t>
+          <t>5,54; 10,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 5,24</t>
+          <t>1,01; 5,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,1; 10,7</t>
+          <t>5,36; 10,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,73; 18,33</t>
+          <t>12,52; 18,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 2,73</t>
+          <t>-0,24; 2,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,59; 7,19</t>
+          <t>3,72; 7,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,56; 14,49</t>
+          <t>10,5; 14,56</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-56,42; 19,91</t>
+          <t>-57,37; 18,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 138,12</t>
+          <t>-3,48; 133,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>120,26; 362,76</t>
+          <t>118,84; 357,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,51; 82,62</t>
+          <t>12,77; 87,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>59,87; 170,13</t>
+          <t>65,95; 182,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>153,31; 299,51</t>
+          <t>155,76; 298,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 53,68</t>
+          <t>-3,92; 57,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>56,14; 144,69</t>
+          <t>58,52; 141,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>165,56; 291,33</t>
+          <t>164,58; 293,06</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 1,32</t>
+          <t>-0,37; 1,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 1,21</t>
+          <t>-0,4; 1,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,43</t>
+          <t>1,0; 3,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,0</t>
+          <t>0,56; 3,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,64</t>
+          <t>1,08; 3,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,27; 5,93</t>
+          <t>2,07; 5,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,85</t>
+          <t>0,38; 1,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,2</t>
+          <t>0,66; 2,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,15; 4,31</t>
+          <t>2,29; 4,32</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,39; 161,27</t>
+          <t>-23,48; 158,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,37; 138,91</t>
+          <t>-26,17; 151,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>58,25; 403,44</t>
+          <t>53,84; 405,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,7; 156,05</t>
+          <t>15,75; 155,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>33,67; 186,92</t>
+          <t>31,45; 190,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>82,27; 316,48</t>
+          <t>69,51; 288,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,51; 126,9</t>
+          <t>15,86; 128,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,91; 145,29</t>
+          <t>28,37; 143,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>101,78; 284,94</t>
+          <t>109,8; 286,08</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 3,02</t>
+          <t>-0,61; 2,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 2,52</t>
+          <t>-0,57; 2,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,34; 4,73</t>
+          <t>1,35; 4,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 3,34</t>
+          <t>-1,13; 3,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 3,59</t>
+          <t>-0,36; 3,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,81; 5,7</t>
+          <t>1,81; 5,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 2,36</t>
+          <t>-0,43; 2,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 2,57</t>
+          <t>0,13; 2,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,27; 4,76</t>
+          <t>2,18; 4,71</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-57,76; 519,86</t>
+          <t>-59,38; 564,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-50,05; 465,51</t>
+          <t>-45,6; 595,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>61,45; 901,65</t>
+          <t>59,11; 1086,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-46,04; 356,44</t>
+          <t>-49,57; 305,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-27,43; 334,12</t>
+          <t>-22,59; 382,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>46,28; 588,76</t>
+          <t>47,31; 593,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-25,66; 244,99</t>
+          <t>-35,36; 247,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 288,3</t>
+          <t>0,43; 298,8</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>98,39; 548,08</t>
+          <t>103,52; 567,52</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 0,78</t>
+          <t>-0,63; 0,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 1,37</t>
+          <t>-0,1; 1,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,71; 3,93</t>
+          <t>1,63; 3,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,17</t>
+          <t>1,05; 3,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,51</t>
+          <t>2,28; 4,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,75; 6,97</t>
+          <t>3,82; 6,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,75</t>
+          <t>0,42; 1,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,37; 2,73</t>
+          <t>1,35; 2,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,18; 5,2</t>
+          <t>3,28; 5,15</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-31,0; 46,52</t>
+          <t>-27,49; 44,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 82,04</t>
+          <t>-5,29; 79,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>74,25; 234,3</t>
+          <t>74,09; 231,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>20,38; 86,3</t>
+          <t>21,65; 85,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>46,83; 122,31</t>
+          <t>47,0; 121,02</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>84,71; 190,25</t>
+          <t>86,47; 188,77</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,01; 62,96</t>
+          <t>11,77; 61,14</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>40,73; 97,41</t>
+          <t>40,8; 98,55</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>97,44; 185,71</t>
+          <t>100,9; 186,13</t>
         </is>
       </c>
     </row>
